--- a/medicine/Handicap/My_Left_Foot/My_Left_Foot.xlsx
+++ b/medicine/Handicap/My_Left_Foot/My_Left_Foot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">My Left Foot (titre original : My Left Foot: The Story of Christy Brown) est un film irlando-britannique réalisé par Jim Sheridan, sorti en 1989.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'histoire vraie de Christy Brown, né en 1932 à Dublin et atteint de paralysie spasmodique. À l'âge de neuf ans, il arrive à contrôler son pied gauche et se met à peindre. Encouragé par le docteur Eileen Cole, de la clinique spécialisée où il suit une thérapie, il fait d'énormes progrès. Puis il tombe amoureux de celle-ci.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par les bases de données Allociné et IMDb.
 Titre : My Left Foot
@@ -598,7 +614,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par les bases de données Allociné et IMDb.
 Daniel Day-Lewis (VF : Patrick Floersheim) : Christy Brown
@@ -643,9 +661,11 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le film avait été proposé pour le Festival de Cannes 1989, mais n'avait pas été pris. Selon le délégué artistique de l'époque, Gilles Jacob, c'est dû au harcèlement téléphonique d'Harvey Weinstein qui distribuait le film aux États-Unis avec sa société Miramax[1],[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film avait été proposé pour le Festival de Cannes 1989, mais n'avait pas été pris. Selon le délégué artistique de l'époque, Gilles Jacob, c'est dû au harcèlement téléphonique d'Harvey Weinstein qui distribuait le film aux États-Unis avec sa société Miramax,.
 </t>
         </is>
       </c>
@@ -675,6 +695,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -702,21 +724,60 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Récompenses
-62e cérémonie des Oscars :
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>62e cérémonie des Oscars :
 Oscar du meilleur acteur – Daniel Day-Lewis
-Oscar de la meilleure actrice dans un second rôle – Brenda Fricker
-Nominations
-62e cérémonie des Oscars :
+Oscar de la meilleure actrice dans un second rôle – Brenda Fricker</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>My_Left_Foot</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/My_Left_Foot</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>62e cérémonie des Oscars :
 Oscar du meilleur film – Noel Pearson, producteur
 Oscar du meilleur réalisateur – Jim Sheridan
 Oscar du meilleur scénario adapté – Jim Sheridan et Shane Connaughton
-1990 : prix du public au festival Premiers Plans d'Angers[3]
+1990 : prix du public au festival Premiers Plans d'Angers
 1990 : Independent Spirit Awards pour le meilleur film
 1989 : BAFTA Film Award du meilleur premier rôle masculin pour Daniel Day-Lewis
-1989 : BAFTA Film Award du meilleur second rôle masculin pour Ray McAnally[4]
+1989 : BAFTA Film Award du meilleur second rôle masculin pour Ray McAnally
 1989 : LAFCA Award du meilleur acteur masculin pour Daniel Day-Lewis
-1989 : LAFCA Award du meilleur second rôle féminin pour Brenda Fricker[5]
+1989 : LAFCA Award du meilleur second rôle féminin pour Brenda Fricker
 1989 : NYFCC Award du meilleur acteur masculin pour Daniel Day-Lewis et du meilleur film
 1990 : 3 nominations au BAFTA Film Award du meilleur maquillage, meilleur scénario d'adaptation et meilleur film
 1990 : 2 nominations aux Golden Globes pour Daniel Day-Lewis et Brenda Fricker
